--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettpall/Documents/Personal/Openpilot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettpall/Documents/GitHub/GMSDGMConnector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C339D000-67E7-D347-ABA1-2039855807C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82488BC-1DB1-9649-8C84-51C5586900EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17420" xr2:uid="{77686054-B16B-2643-ABCE-3D7621A4EDBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t xml:space="preserve">26 AWG Wire </t>
   </si>
@@ -132,13 +132,16 @@
   </si>
   <si>
     <t>12 ft</t>
+  </si>
+  <si>
+    <t>Recommendation: Order more terminals than you need. Order from digikey for lower qty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +186,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,8 +221,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -224,9 +236,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -236,8 +245,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,7 +566,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,7 +590,7 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -599,7 +612,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -616,7 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -630,7 +643,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -643,8 +656,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -656,12 +669,12 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -678,7 +691,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -714,6 +727,7 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{B89A8DBC-5173-4944-8111-DEBDF2F01C47}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{CB86FEC7-70F0-5F4C-827C-75D091827F2D}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{B081F12F-F4A7-B14B-A2CB-E87D33570F9B}"/>
+    <hyperlink ref="E6" r:id="rId8" display="Recommendation: Order more terminals than you need. Order from digikey" xr:uid="{E98B7209-6341-2E4F-A4D2-C2533E0CF17B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
